--- a/CM40_TestData_CreateExternalCashTransactions_21C.xlsx
+++ b/CM40_TestData_CreateExternalCashTransactions_21C.xlsx
@@ -1,78 +1,200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Cash Management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2776C49E-BBFA-4532-951F-A90CF93EE520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Input_Value" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Output_Value" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Compare" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Input_Value" sheetId="1" r:id="rId1"/>
+    <sheet name="Output_Value" sheetId="2" r:id="rId2"/>
+    <sheet name="Compare" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Priyank Jain</author>
+  </authors>
+  <commentList>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Priyank Jain:
+Reference should be UNIQUE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Priyank Jain:
+Formula Used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+  <si>
+    <t>LowWait</t>
+  </si>
+  <si>
+    <t>MediumWait</t>
+  </si>
+  <si>
+    <t>HighWait</t>
+  </si>
+  <si>
+    <t>HighestWait</t>
+  </si>
+  <si>
+    <t>LowExplicitWait</t>
+  </si>
+  <si>
+    <t>MediumExplicitWait</t>
+  </si>
+  <si>
+    <t>LongExplicitWait</t>
+  </si>
+  <si>
+    <t>HighestExplicitWait</t>
+  </si>
+  <si>
+    <t>BankAcct</t>
+  </si>
+  <si>
+    <t>BankAcct1</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>OffsetAccount</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Chase_US_Acct</t>
+  </si>
+  <si>
+    <t>08-Dec-2020</t>
+  </si>
+  <si>
+    <t>101.0000.230004.000000.0000.000.0000</t>
+  </si>
+  <si>
+    <t>Testing124S02</t>
+  </si>
+  <si>
+    <t>ProcessIDAct</t>
+  </si>
+  <si>
+    <t>1703381</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="10"/>
-      <u val="single"/>
     </font>
   </fonts>
   <fills count="7">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.5999938962981048"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -130,59 +252,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Priyank Jain</author>
-  </authors>
-  <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text>
-        <t>Priyank Jain:
-Reference should be UNIQUE</t>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text>
-        <t>Priyank Jain:
-Formula Used</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,244 +590,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S2" sqref="Q2:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="6" min="1" max="7"/>
-    <col width="16.81640625" bestFit="1" customWidth="1" style="6" min="8" max="8"/>
-    <col collapsed="1" width="21.54296875" bestFit="1" customWidth="1" style="6" min="9" max="10"/>
-    <col collapsed="1" width="9.7265625" bestFit="1" customWidth="1" style="6" min="11" max="11"/>
-    <col collapsed="1" width="11.453125" bestFit="1" customWidth="1" style="6" min="12" max="12"/>
-    <col collapsed="1" width="39.7265625" customWidth="1" style="6" min="13" max="13"/>
-    <col width="12.6328125" bestFit="1" customWidth="1" style="6" min="14" max="15"/>
-    <col width="8.7265625" customWidth="1" style="6" min="16" max="16"/>
-    <col collapsed="1" width="44.1796875" bestFit="1" customWidth="1" style="6" min="17" max="17"/>
-    <col collapsed="1" width="26.81640625" bestFit="1" customWidth="1" style="6" min="18" max="18"/>
-    <col collapsed="1" width="16.54296875" bestFit="1" customWidth="1" style="6" min="19" max="19"/>
-    <col width="8.7265625" customWidth="1" style="6" min="20" max="21"/>
-    <col width="8.7265625" customWidth="1" style="6" min="22" max="16384"/>
+    <col min="1" max="7" width="8.77734375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.77734375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.44140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="39.77734375" style="6" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="44.21875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="26.77734375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="22" width="8.77734375" style="6" customWidth="1"/>
+    <col min="23" max="16384" width="8.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" customFormat="1" customHeight="1" s="5">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>LowWait</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="inlineStr">
-        <is>
-          <t>MediumWait</t>
-        </is>
-      </c>
-      <c r="C1" s="12" t="inlineStr">
-        <is>
-          <t>HighWait</t>
-        </is>
-      </c>
-      <c r="D1" s="13" t="inlineStr">
-        <is>
-          <t>HighestWait</t>
-        </is>
-      </c>
-      <c r="E1" s="10" t="inlineStr">
-        <is>
-          <t>LowExplicitWait</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>MediumExplicitWait</t>
-        </is>
-      </c>
-      <c r="G1" s="12" t="inlineStr">
-        <is>
-          <t>LongExplicitWait</t>
-        </is>
-      </c>
-      <c r="H1" s="13" t="inlineStr">
-        <is>
-          <t>HighestExplicitWait</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>BankAcct</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="inlineStr">
-        <is>
-          <t>BankAcct1</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>OffsetAccount</t>
-        </is>
-      </c>
-      <c r="N1" s="4" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="O1" s="4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="R1" s="3" t="inlineStr">
-        <is>
-          <t>UserName</t>
-        </is>
-      </c>
-      <c r="S1" s="3" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" s="1">
-      <c r="A2" s="6" t="n">
+    <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="6">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="6">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>30</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="6">
         <v>60</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>120</v>
       </c>
-      <c r="I2" s="7" t="inlineStr">
-        <is>
-          <t>Chase_US_Acct</t>
-        </is>
-      </c>
-      <c r="J2" s="7" t="inlineStr">
-        <is>
-          <t>Chase_US_Acct</t>
-        </is>
-      </c>
-      <c r="K2" s="7" t="n">
+      <c r="I2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="7">
         <v>300</v>
       </c>
-      <c r="L2" s="7" t="inlineStr">
-        <is>
-          <t>08-Dec-2020</t>
-        </is>
-      </c>
-      <c r="M2" s="7" t="inlineStr">
-        <is>
-          <t>101.0000.230004.000000.0000.000.0000</t>
-        </is>
-      </c>
-      <c r="N2" s="7" t="inlineStr">
-        <is>
-          <t>Testing124S02</t>
-        </is>
-      </c>
-      <c r="O2" s="7" t="inlineStr">
-        <is>
-          <t>Testing124S02</t>
-        </is>
-      </c>
-      <c r="Q2" s="8" t="inlineStr">
-        <is>
-          <t>https://edrx.fa.us2.oraclecloud.com</t>
-        </is>
-      </c>
-      <c r="R2" s="9" t="inlineStr">
-        <is>
-          <t>IBM_IMPLEMENTATION_USER</t>
-        </is>
-      </c>
-      <c r="S2" s="7" t="inlineStr">
-        <is>
-          <t>Oracle1234</t>
-        </is>
-      </c>
+      <c r="L2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="7"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="Q2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="1" width="10.453125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>UserName</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ProcessIDAct</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1703381</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -727,18 +757,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
